--- a/public/import/weekly_template_Non Result (RSH FL KASIR ) (1).xlsx
+++ b/public/import/weekly_template_Non Result (RSH FL KASIR ) (1).xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MISHOP\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" forceFullCalc="1"/>
+  <calcPr calcId="152511" forceFullCalc="1"/>
 </workbook>
 </file>
 
@@ -46,9 +51,6 @@
     <t>Activity store (Flayering,aktivitas sosmed , Direct selling )</t>
   </si>
   <si>
-    <t>menjalankan dan menawarkan promo dan  Pelayanan Retail sesuai standar complete</t>
-  </si>
-  <si>
     <t xml:space="preserve">Memastikan Kondisi CCTV di toko </t>
   </si>
   <si>
@@ -58,7 +60,10 @@
     <t xml:space="preserve">Melakukan laporan pertanggung jawaban LPJ Kepada Coordinator atau Kepala toko Setiap minggu nya </t>
   </si>
   <si>
-    <t>24</t>
+    <t>menjalankan dan menawarkan promo , benefit complete selular dan  Pelayanan Retail sesuai standar complete</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
 </sst>
 </file>
@@ -78,6 +83,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -122,7 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -131,6 +137,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -192,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,13 +446,13 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="82.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -471,7 +478,7 @@
       <c r="A2" s="3">
         <v>2022</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -486,7 +493,7 @@
       <c r="A3" s="3">
         <v>2022</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -501,7 +508,7 @@
       <c r="A4" s="3">
         <v>2022</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -516,7 +523,7 @@
       <c r="A5" s="3">
         <v>2022</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -531,11 +538,11 @@
       <c r="A6" s="3">
         <v>2022</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -546,11 +553,11 @@
       <c r="A7" s="3">
         <v>2022</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
@@ -561,11 +568,11 @@
       <c r="A8" s="3">
         <v>2022</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -576,11 +583,11 @@
       <c r="A9" s="3">
         <v>2022</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
